--- a/target/classes/com/wipro/Testdata/TestExcel.xlsx
+++ b/target/classes/com/wipro/Testdata/TestExcel.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>First Name</t>
   </si>
@@ -399,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,12 +471,72 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8 Sensitivity: Internal</oddFooter>
   </headerFooter>
